--- a/tests/output/09-merge.xlsx
+++ b/tests/output/09-merge.xlsx
@@ -11,13 +11,15 @@
     <sheet sheetId="5" name="MergeWithBorder" state="visible" r:id="rId8"/>
     <sheet sheetId="6" name="MultiHeaderWithBorder" state="visible" r:id="rId9"/>
     <sheet sheetId="7" name="DeepMultiHeaderWithBorder" state="visible" r:id="rId10"/>
+    <sheet sheetId="8" name="MultiHeaderReverse" state="visible" r:id="rId11"/>
+    <sheet sheetId="9" name="DeepMultiHeaderReverse" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="17">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -91,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -197,11 +199,25 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -217,6 +233,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1161,4 +1179,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>100</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>50</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>
--- a/tests/output/09-merge.xlsx
+++ b/tests/output/09-merge.xlsx
@@ -9,17 +9,15 @@
     <sheet sheetId="3" name="MultiHeader" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="DeepMultiHeader" state="visible" r:id="rId7"/>
     <sheet sheetId="5" name="MergeWithBorder" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="MultiHeaderWithBorder" state="visible" r:id="rId9"/>
-    <sheet sheetId="7" name="DeepMultiHeaderWithBorder" state="visible" r:id="rId10"/>
-    <sheet sheetId="8" name="MultiHeaderReverse" state="visible" r:id="rId11"/>
-    <sheet sheetId="9" name="DeepMultiHeaderReverse" state="visible" r:id="rId12"/>
+    <sheet sheetId="6" name="MultiHeaderReverse" state="visible" r:id="rId9"/>
+    <sheet sheetId="7" name="DeepMultiHeaderReverse" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="17">
   <si>
     <t>カテゴリ</t>
   </si>
@@ -93,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -103,20 +101,6 @@
     </border>
     <border>
       <left style="medium"/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
@@ -124,117 +108,25 @@
     </border>
     <border>
       <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
       <right style="medium"/>
       <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
       <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,62 +470,62 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -653,76 +545,76 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -744,75 +636,75 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -832,82 +724,82 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1"/>
-      <c r="C1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -931,59 +823,59 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -1003,82 +895,82 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3">
+        <v>100</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6">
-        <v>100</v>
-      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="1">
+        <v>80</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
-        <v>80</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="8">
-        <v>50</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
-        <v>50000</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="11">
-        <v>100000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -1091,266 +983,82 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="3">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
-        <v>100</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="1">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
-        <v>80</v>
-      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
-        <v>50</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
-        <v>50000</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="1">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11">
-        <v>100000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:C3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>100</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>80</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>50</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>50000</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>100000</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>80</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>50</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
-        <v>50000</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>100000</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/tests/output/09-merge.xlsx
+++ b/tests/output/09-merge.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -82,13 +82,22 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -117,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -127,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,22 +646,22 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">

--- a/tests/output/09-merge.xlsx
+++ b/tests/output/09-merge.xlsx
@@ -478,6 +478,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -553,6 +557,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="16.4" customWidth="1"/>
+    <col min="3" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -644,6 +654,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -732,6 +746,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -828,6 +846,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -903,6 +925,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="9.2" customWidth="1"/>
+    <col min="2" max="3" width="11.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -991,6 +1017,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="9.2" customWidth="1"/>
+    <col min="2" max="3" width="11.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/tests/output/09-merge.xlsx
+++ b/tests/output/09-merge.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -82,13 +82,22 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -117,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -127,6 +136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,6 +478,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -543,6 +557,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="11.6" customWidth="1"/>
+    <col min="2" max="2" width="16.4" customWidth="1"/>
+    <col min="3" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -634,24 +654,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -722,6 +746,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -818,6 +846,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="2" width="11.6" customWidth="1"/>
+    <col min="3" max="3" width="9.2" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -893,6 +925,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="9.2" customWidth="1"/>
+    <col min="2" max="3" width="11.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -981,6 +1017,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="9.2" customWidth="1"/>
+    <col min="2" max="3" width="11.6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
